--- a/xlsx2py/xlsxs/使用说明.xlsx
+++ b/xlsx2py/xlsxs/使用说明.xlsx
@@ -200,22 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.4 命令符号 "c"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     表示该列仅客户端使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     表示该列仅服务器端使用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5 命令符号 "s"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.6 命令符号可以组合使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,22 +213,6 @@
   </si>
   <si>
     <t xml:space="preserve">      [cs] 同时存在等价于同时不存在，客户端服务器都会导出。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>在表名前面加：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前缀 "@"表示为服务器和客户端同时导出。 前缀"#"表示仅客户端导出。 前缀"$"表示仅服务器导出。</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -503,10 +471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'Alice': 'abc', 'Beth': 9102,11: efg'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>随便写什么</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -628,6 +592,42 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Alice': 'abc', 'Beth': 9102,11:'efg'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在表名前面加：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前缀 "@"表示为服务器和客户端同时导出。 前缀"#"表示仅客户端导出。 前缀"$"表示仅服务器导出。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4 命令符号 "c"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     表示该列仅客户端使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 命令符号 "s"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     表示该列仅服务器端使用。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1181,17 +1181,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1204,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1218,12 +1218,12 @@
         <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -1233,7 +1233,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -1278,7 +1278,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>40</v>
@@ -1332,213 +1332,213 @@
     <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B33" s="3" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F47" s="14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1583,16 +1583,16 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="4"/>
@@ -1624,7 +1624,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
@@ -1636,13 +1636,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C4" s="4">
         <v>1.2</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
@@ -1654,10 +1654,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>13</v>
@@ -1669,7 +1669,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="4" t="s">
@@ -1706,13 +1706,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
@@ -1748,13 +1748,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C8" s="4">
         <v>1.5</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>16</v>
@@ -1831,19 +1831,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G1" s="6"/>
     </row>
@@ -1867,13 +1867,13 @@
         <v>10000000000</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -1882,19 +1882,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -1903,16 +1903,16 @@
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -1921,14 +1921,14 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C6" s="4">
         <v>4</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -1937,19 +1937,19 @@
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E7" s="15">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -1958,16 +1958,16 @@
         <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>16</v>
@@ -2016,7 +2016,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
